--- a/v0.9-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
+++ b/v0.9-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vvng-my.sharepoint.com/personal/jan_brinkkemper_vng_nl/Documents/Publicatie-EA/Imvertor/Modellen op Github/koppelvlakken/Levensonderhoud-behandelen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{0E008C66-7F03-4A8E-8F05-82D696E7B5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C916A18E-B340-42BB-BC62-86C92C346D41}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{0E008C66-7F03-4A8E-8F05-82D696E7B5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB23D4DB-EDDA-441A-B701-1C83FB553FBD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{459DC88B-0BB4-4CC7-BB02-9EC2264ADF87}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{459DC88B-0BB4-4CC7-BB02-9EC2264ADF87}"/>
   </bookViews>
   <sheets>
-    <sheet name="Behandelen LO" sheetId="1" r:id="rId1"/>
+    <sheet name="LO Behandelen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Behandelen LO'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LO Behandelen'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1012,8 +1012,8 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/v0.9-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
+++ b/v0.9-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vvng-my.sharepoint.com/personal/jan_brinkkemper_vng_nl/Documents/Publicatie-EA/Imvertor/Modellen op Github/koppelvlakken/Levensonderhoud-behandelen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{0E008C66-7F03-4A8E-8F05-82D696E7B5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB23D4DB-EDDA-441A-B701-1C83FB553FBD}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{0E008C66-7F03-4A8E-8F05-82D696E7B5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76A4B21A-28EE-4F52-956A-22D22AE4BDE9}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{459DC88B-0BB4-4CC7-BB02-9EC2264ADF87}"/>
+    <workbookView xWindow="18800" yWindow="170" windowWidth="19090" windowHeight="20430" xr2:uid="{459DC88B-0BB4-4CC7-BB02-9EC2264ADF87}"/>
   </bookViews>
   <sheets>
     <sheet name="LO Behandelen" sheetId="1" r:id="rId1"/>
@@ -592,9 +592,6 @@
     <t>Een medebewoner van zowel de aanvrager als de medeaanvrager wordt alleen opgenomen bij de aanvrager</t>
   </si>
   <si>
-    <t>Zaak-LO-Aangevraagd</t>
-  </si>
-  <si>
     <t>Emailadres of Telefoonnummer is verplicht</t>
   </si>
   <si>
@@ -617,6 +614,9 @@
   </si>
   <si>
     <t>1-EindeWW-uitkering, 2-EindeZW-uitkering, 3-EindeWGA-uitkering, 4-EindeWAO-WIA-uitkering, 5-Eindeoverige uitkering</t>
+  </si>
+  <si>
+    <t>Zaak-LO-Behandeld</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s">
         <v>123</v>
@@ -1387,7 +1387,7 @@
         <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F32" s="6"/>
     </row>
@@ -1430,7 +1430,7 @@
         <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F36" s="6"/>
     </row>
@@ -2111,7 +2111,7 @@
         <v>139</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="E99" s="6"/>
     </row>
@@ -2134,24 +2134,24 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F101" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -2229,7 +2229,7 @@
         <v>58</v>
       </c>
       <c r="E108" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F108" t="s">
         <v>158</v>
@@ -2551,13 +2551,13 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B140" t="s">
         <v>156</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
@@ -2568,7 +2568,7 @@
         <v>14</v>
       </c>
       <c r="E141" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
